--- a/medicine/Mort/Extension_du_cimetière_communal_de_Humbercamps/Extension_du_cimetière_communal_de_Humbercamps.xlsx
+++ b/medicine/Mort/Extension_du_cimetière_communal_de_Humbercamps/Extension_du_cimetière_communal_de_Humbercamps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extension_du_cimeti%C3%A8re_communal_de_Humbercamps</t>
+          <t>Extension_du_cimetière_communal_de_Humbercamps</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Humbercamps Communal Cemetery Extension  est un cimetière militaire de la Première Guerre mondiale, situé sur le territoire de la commune d' Humbercamps, dans le département du Pas-de-Calais, au sud-ouest d'Arras.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extension_du_cimeti%C3%A8re_communal_de_Humbercamps</t>
+          <t>Extension_du_cimetière_communal_de_Humbercamps</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière jouxte le cimetière communal, au nord du village, rue Notre-Dame.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extension_du_cimeti%C3%A8re_communal_de_Humbercamps</t>
+          <t>Extension_du_cimetière_communal_de_Humbercamps</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à Bienvillers-au-Bois dont on voit une photo des ruines en 1917, le village est resté à l'arrière de la ligne de front tout au long de la guerre et a donc subi peu de dégâts. Des hôpitaux de campagne étaient donc implantés dans le secteur pour recueillir et soigner les blessés. Ceux qui succombèrent à leurs blessures furent inhumés dans ce lieu  de septembre 1915 à février 1917 et pour 6 d'entre-eux en mars 1918. Il y a 79 soldats britanniques inhumés dans ce cimetière
-[1].
+.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extension_du_cimeti%C3%A8re_communal_de_Humbercamps</t>
+          <t>Extension_du_cimetière_communal_de_Humbercamps</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce  cimetière a un plan quasi rectangulaire de 25 m sur 22.
 Il est entouré d'une haie d'arbustes.
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Extension_du_cimeti%C3%A8re_communal_de_Humbercamps</t>
+          <t>Extension_du_cimetière_communal_de_Humbercamps</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,6 +625,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
